--- a/Code/Results/Cases/Case_3_154/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_154/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.8120954633297</v>
+        <v>15.0597367646986</v>
       </c>
       <c r="C2">
-        <v>12.4640441778228</v>
+        <v>12.03898504284022</v>
       </c>
       <c r="D2">
-        <v>4.095482412239253</v>
+        <v>4.864864825314219</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.34512825231308</v>
+        <v>25.21674136324056</v>
       </c>
       <c r="G2">
-        <v>2.071360372039326</v>
+        <v>3.631373362726689</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.747930709196029</v>
+        <v>10.8403660579065</v>
       </c>
       <c r="M2">
-        <v>12.04749331662152</v>
+        <v>15.26941240228047</v>
       </c>
       <c r="N2">
-        <v>12.07273142340398</v>
+        <v>18.17974642313193</v>
       </c>
       <c r="O2">
-        <v>16.00602045710571</v>
+        <v>22.4545918845222</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.46715218754816</v>
+        <v>14.61073592849474</v>
       </c>
       <c r="C3">
-        <v>12.07143451485076</v>
+        <v>11.90198604048744</v>
       </c>
       <c r="D3">
-        <v>4.001555384605305</v>
+        <v>4.835071270709284</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.66718159702405</v>
+        <v>25.17937328717281</v>
       </c>
       <c r="G3">
-        <v>2.076936414246076</v>
+        <v>3.633526337783374</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.681730249377036</v>
+        <v>10.85543088089858</v>
       </c>
       <c r="M3">
-        <v>11.51549791746197</v>
+        <v>15.18983167809014</v>
       </c>
       <c r="N3">
-        <v>12.26234778753513</v>
+        <v>18.23925466731086</v>
       </c>
       <c r="O3">
-        <v>15.70038539723781</v>
+        <v>22.48466969989769</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.59266854645164</v>
+        <v>14.33040571121336</v>
       </c>
       <c r="C4">
-        <v>11.82344052856415</v>
+        <v>11.81639834605854</v>
       </c>
       <c r="D4">
-        <v>3.942438459118341</v>
+        <v>4.816442859591607</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.25944610146611</v>
+        <v>25.16403354563555</v>
       </c>
       <c r="G4">
-        <v>2.080468238282277</v>
+        <v>3.634919241950064</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.644372465870872</v>
+        <v>10.86629914729202</v>
       </c>
       <c r="M4">
-        <v>11.18102283545061</v>
+        <v>15.14329069667549</v>
       </c>
       <c r="N4">
-        <v>12.38196978344819</v>
+        <v>18.27765409218454</v>
       </c>
       <c r="O4">
-        <v>15.52583539714405</v>
+        <v>22.50901248577385</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.22399067926387</v>
+        <v>14.21518125954959</v>
       </c>
       <c r="C5">
-        <v>11.72073439852395</v>
+        <v>11.78117228687878</v>
       </c>
       <c r="D5">
-        <v>3.918004388282525</v>
+        <v>4.80876989485342</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.09564958235905</v>
+        <v>25.15969871212946</v>
       </c>
       <c r="G5">
-        <v>2.081935324752596</v>
+        <v>3.635504764226553</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.629970603672549</v>
+        <v>10.87113515742496</v>
       </c>
       <c r="M5">
-        <v>11.04294105633587</v>
+        <v>15.12492342910498</v>
       </c>
       <c r="N5">
-        <v>12.43153134894541</v>
+        <v>18.29377138337781</v>
       </c>
       <c r="O5">
-        <v>15.45799449272339</v>
+        <v>22.52040627899009</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.16202575264464</v>
+        <v>14.19599416313503</v>
       </c>
       <c r="C6">
-        <v>11.70358367345537</v>
+        <v>11.77530261117033</v>
       </c>
       <c r="D6">
-        <v>3.913926995237277</v>
+        <v>4.807490941824442</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.06860012513544</v>
+        <v>25.15909473207471</v>
       </c>
       <c r="G6">
-        <v>2.082180633359575</v>
+        <v>3.635603072694467</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.627628626906631</v>
+        <v>10.87196276426623</v>
       </c>
       <c r="M6">
-        <v>11.01991114286882</v>
+        <v>15.12191012386907</v>
       </c>
       <c r="N6">
-        <v>12.43981052845514</v>
+        <v>18.29647602270961</v>
       </c>
       <c r="O6">
-        <v>15.44692779686296</v>
+        <v>22.5223871192584</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.58774640706048</v>
+        <v>14.32885550655602</v>
       </c>
       <c r="C7">
-        <v>11.82206193060525</v>
+        <v>11.81592465743346</v>
       </c>
       <c r="D7">
-        <v>3.94211029594769</v>
+        <v>4.816339706935453</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.25722724578262</v>
+        <v>25.16396732192849</v>
       </c>
       <c r="G7">
-        <v>2.080487910357209</v>
+        <v>3.634927065946082</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.644174918450384</v>
+        <v>10.8663627189239</v>
       </c>
       <c r="M7">
-        <v>11.17916755811008</v>
+        <v>15.14304054691245</v>
       </c>
       <c r="N7">
-        <v>12.38263487526481</v>
+        <v>18.27786955416461</v>
       </c>
       <c r="O7">
-        <v>15.5249071698336</v>
+        <v>22.50916018360189</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.3584164291208</v>
+        <v>14.90598868316775</v>
       </c>
       <c r="C8">
-        <v>12.33016528482221</v>
+        <v>11.99206544227083</v>
       </c>
       <c r="D8">
-        <v>4.063407958858015</v>
+        <v>4.854663050205708</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.10972971334464</v>
+        <v>25.20228156800196</v>
       </c>
       <c r="G8">
-        <v>2.073260956278357</v>
+        <v>3.632101013222338</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.72441920331094</v>
+        <v>10.84522461060928</v>
       </c>
       <c r="M8">
-        <v>11.86579074186237</v>
+        <v>15.24150010772495</v>
       </c>
       <c r="N8">
-        <v>12.13745411891385</v>
+        <v>18.19987932407169</v>
       </c>
       <c r="O8">
-        <v>15.89791540782066</v>
+        <v>22.46374153535412</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.44795721519808</v>
+        <v>15.99365395850863</v>
       </c>
       <c r="C9">
-        <v>13.26785482040295</v>
+        <v>12.32490546231159</v>
       </c>
       <c r="D9">
-        <v>4.288992945129881</v>
+        <v>4.927047916343796</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.84015294268717</v>
+        <v>25.33748736980197</v>
       </c>
       <c r="G9">
-        <v>2.059915483569768</v>
+        <v>3.627119646369504</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.908060851025098</v>
+        <v>10.81660645488696</v>
       </c>
       <c r="M9">
-        <v>13.14318803965967</v>
+        <v>15.45232252170519</v>
       </c>
       <c r="N9">
-        <v>11.68153623210781</v>
+        <v>18.06165200393496</v>
       </c>
       <c r="O9">
-        <v>16.73323343340529</v>
+        <v>22.42141522945023</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.48953909565401</v>
+        <v>16.75707238076473</v>
       </c>
       <c r="C10">
-        <v>13.91672164710883</v>
+        <v>12.56059548100226</v>
       </c>
       <c r="D10">
-        <v>4.44625618607448</v>
+        <v>4.97839943285877</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.13632788444351</v>
+        <v>25.47296018209811</v>
       </c>
       <c r="G10">
-        <v>2.050568251131393</v>
+        <v>3.623797916356144</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.059185776646411</v>
+        <v>10.80339183400204</v>
       </c>
       <c r="M10">
-        <v>14.14781546503108</v>
+        <v>15.61707495501342</v>
       </c>
       <c r="N10">
-        <v>11.36108285862181</v>
+        <v>17.96898622477031</v>
       </c>
       <c r="O10">
-        <v>17.40950974012267</v>
+        <v>22.4189436407998</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.36985839198895</v>
+        <v>17.09501943952048</v>
       </c>
       <c r="C11">
-        <v>14.20249906466521</v>
+        <v>12.66565496659931</v>
       </c>
       <c r="D11">
-        <v>4.51577782731829</v>
+        <v>5.001333340544482</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.72947078321364</v>
+        <v>25.54229267994371</v>
       </c>
       <c r="G11">
-        <v>2.046404405638032</v>
+        <v>3.622359415628085</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.131476225522817</v>
+        <v>10.79907232159986</v>
       </c>
       <c r="M11">
-        <v>14.64452455229458</v>
+        <v>15.69395029336248</v>
       </c>
       <c r="N11">
-        <v>11.21831840291726</v>
+        <v>17.92874396925298</v>
       </c>
       <c r="O11">
-        <v>17.73049870274546</v>
+        <v>22.42404877747623</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.69634582713757</v>
+        <v>17.22153230248352</v>
       </c>
       <c r="C12">
-        <v>14.30931676050792</v>
+        <v>12.70510855640318</v>
       </c>
       <c r="D12">
-        <v>4.541800266279993</v>
+        <v>5.009953992999166</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.95445451749649</v>
+        <v>25.56963982996009</v>
       </c>
       <c r="G12">
-        <v>2.044839392743401</v>
+        <v>3.62182506995144</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.159360859033718</v>
+        <v>10.79767945477678</v>
       </c>
       <c r="M12">
-        <v>14.82890349186693</v>
+        <v>15.72331932417122</v>
       </c>
       <c r="N12">
-        <v>11.16468086114745</v>
+        <v>17.9137789937466</v>
       </c>
       <c r="O12">
-        <v>17.85394434433281</v>
+        <v>22.42687758132238</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.62633500176846</v>
+        <v>17.1943521921644</v>
       </c>
       <c r="C13">
-        <v>14.28637461380072</v>
+        <v>12.69662651466892</v>
       </c>
       <c r="D13">
-        <v>4.536209587841196</v>
+        <v>5.008100265851166</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.9059854388207</v>
+        <v>25.56370181317915</v>
       </c>
       <c r="G13">
-        <v>2.045175939690263</v>
+        <v>3.621939689879879</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.153332725655101</v>
+        <v>10.79796864124729</v>
       </c>
       <c r="M13">
-        <v>14.78935856465469</v>
+        <v>15.71698301476354</v>
       </c>
       <c r="N13">
-        <v>11.1762139263146</v>
+        <v>17.91698980371214</v>
       </c>
       <c r="O13">
-        <v>17.82727425042599</v>
+        <v>22.42622852700501</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.39685587234203</v>
+        <v>17.10545762881541</v>
       </c>
       <c r="C14">
-        <v>14.21131532937726</v>
+        <v>12.6689075660517</v>
       </c>
       <c r="D14">
-        <v>4.517924873153911</v>
+        <v>5.002043862890374</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.7479735023387</v>
+        <v>25.54452074817143</v>
       </c>
       <c r="G14">
-        <v>2.046275421354778</v>
+        <v>3.622315246888367</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.133760092099465</v>
+        <v>10.79895286561307</v>
       </c>
       <c r="M14">
-        <v>14.65976766428485</v>
+        <v>15.69636144241634</v>
       </c>
       <c r="N14">
-        <v>11.21389715429442</v>
+        <v>17.92750730831965</v>
       </c>
       <c r="O14">
-        <v>17.74061682522931</v>
+        <v>22.42426355955624</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.25540129482954</v>
+        <v>17.05081366897467</v>
       </c>
       <c r="C15">
-        <v>14.16515571952946</v>
+        <v>12.65188533202696</v>
       </c>
       <c r="D15">
-        <v>4.506684998052584</v>
+        <v>4.998325739001384</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.65123182333291</v>
+        <v>25.53291356565837</v>
       </c>
       <c r="G15">
-        <v>2.046950385956905</v>
+        <v>3.622546637071248</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.121837689588714</v>
+        <v>10.79958734153731</v>
       </c>
       <c r="M15">
-        <v>14.57990731282588</v>
+        <v>15.68376315393137</v>
       </c>
       <c r="N15">
-        <v>11.23703422568052</v>
+        <v>17.93398522229603</v>
       </c>
       <c r="O15">
-        <v>17.68778260820048</v>
+        <v>22.4231765749304</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.43104175002083</v>
+        <v>16.73478853098626</v>
       </c>
       <c r="C16">
-        <v>13.89785198097806</v>
+        <v>12.55368446829343</v>
       </c>
       <c r="D16">
-        <v>4.441670971288979</v>
+        <v>4.976891846379939</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.09762337823769</v>
+        <v>25.46858290184802</v>
       </c>
       <c r="G16">
-        <v>2.05084206478791</v>
+        <v>3.623893381594883</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.054532751058587</v>
+        <v>10.80370813239331</v>
       </c>
       <c r="M16">
-        <v>14.11483193015453</v>
+        <v>15.61208813708451</v>
       </c>
       <c r="N16">
-        <v>11.37047267840563</v>
+        <v>17.97165453391948</v>
       </c>
       <c r="O16">
-        <v>17.38879873523351</v>
+        <v>22.41873536221875</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.9129890986953</v>
+        <v>16.5384384660477</v>
       </c>
       <c r="C17">
-        <v>13.73142585220506</v>
+        <v>12.49287452144023</v>
       </c>
       <c r="D17">
-        <v>4.401259894956107</v>
+        <v>4.963631811492968</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.75879928476187</v>
+        <v>25.43108114593931</v>
       </c>
       <c r="G17">
-        <v>2.053251435614877</v>
+        <v>3.624738115562117</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.014151083432581</v>
+        <v>10.80666913831189</v>
       </c>
       <c r="M17">
-        <v>13.82285542798042</v>
+        <v>15.56859818620373</v>
       </c>
       <c r="N17">
-        <v>11.45309762468537</v>
+        <v>17.99525237243283</v>
       </c>
       <c r="O17">
-        <v>17.2087818956591</v>
+        <v>22.4176064470067</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.61045706368742</v>
+        <v>16.42463062392125</v>
       </c>
       <c r="C18">
-        <v>13.63481998090491</v>
+        <v>12.45769636745046</v>
       </c>
       <c r="D18">
-        <v>4.377827281519607</v>
+        <v>4.955965034617221</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.56425290465958</v>
+        <v>25.41023743482177</v>
       </c>
       <c r="G18">
-        <v>2.054645609588812</v>
+        <v>3.625230818014741</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.991258098891227</v>
+        <v>10.80853151056465</v>
       </c>
       <c r="M18">
-        <v>13.65245255530735</v>
+        <v>15.54376663349355</v>
       </c>
       <c r="N18">
-        <v>11.50090523318986</v>
+        <v>18.00900523982374</v>
       </c>
       <c r="O18">
-        <v>17.10649879059488</v>
+        <v>22.41754353225843</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.50723871113161</v>
+        <v>16.38595118683768</v>
       </c>
       <c r="C19">
-        <v>13.60196104707223</v>
+        <v>12.44575159492637</v>
       </c>
       <c r="D19">
-        <v>4.36986133984929</v>
+        <v>4.953362414225817</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.49844501217853</v>
+        <v>25.40330529962961</v>
       </c>
       <c r="G19">
-        <v>2.055119117861123</v>
+        <v>3.62539881391408</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.983564190791343</v>
+        <v>10.8091894468553</v>
       </c>
       <c r="M19">
-        <v>13.60044002096799</v>
+        <v>15.53539106029865</v>
       </c>
       <c r="N19">
-        <v>11.51714111369694</v>
+        <v>18.01369267391299</v>
       </c>
       <c r="O19">
-        <v>17.07208432102709</v>
+        <v>22.41762293975779</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.96860817761766</v>
+        <v>16.55943145624911</v>
       </c>
       <c r="C20">
-        <v>13.74923385942755</v>
+        <v>12.49936888476619</v>
       </c>
       <c r="D20">
-        <v>4.405581411158746</v>
+        <v>4.965047519300908</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.79483391571201</v>
+        <v>25.43499820857286</v>
       </c>
       <c r="G20">
-        <v>2.052994094609584</v>
+        <v>3.624647485295074</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.018415263891169</v>
+        <v>10.80633745233888</v>
       </c>
       <c r="M20">
-        <v>13.85419167844137</v>
+        <v>15.57320899392012</v>
       </c>
       <c r="N20">
-        <v>11.44427273933423</v>
+        <v>17.99272171890482</v>
       </c>
       <c r="O20">
-        <v>17.22781500596192</v>
+        <v>22.41766592991576</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.46444517782341</v>
+        <v>17.13160863002368</v>
       </c>
       <c r="C21">
-        <v>14.23340040469482</v>
+        <v>12.6770584094163</v>
       </c>
       <c r="D21">
-        <v>4.523303887108727</v>
+        <v>5.003824530928078</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.7943762159514</v>
+        <v>25.55012517680834</v>
       </c>
       <c r="G21">
-        <v>2.045952166053535</v>
+        <v>3.622204655305663</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.139495210629968</v>
+        <v>10.79865718845918</v>
       </c>
       <c r="M21">
-        <v>14.69793204855944</v>
+        <v>15.70241165177053</v>
       </c>
       <c r="N21">
-        <v>11.2028172279044</v>
+        <v>17.9244106370041</v>
       </c>
       <c r="O21">
-        <v>17.76601899526268</v>
+        <v>22.42481641715408</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.4020597886815</v>
+        <v>17.49700114001765</v>
       </c>
       <c r="C22">
-        <v>14.54165411099448</v>
+        <v>12.79125558866853</v>
       </c>
       <c r="D22">
-        <v>4.598465586180429</v>
+        <v>5.028793768603635</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.44976967510178</v>
+        <v>25.63172634300591</v>
       </c>
       <c r="G22">
-        <v>2.041417829581549</v>
+        <v>3.620668622712638</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.221599697037479</v>
+        <v>10.79505287944907</v>
       </c>
       <c r="M22">
-        <v>15.22774191999866</v>
+        <v>15.78834770522721</v>
       </c>
       <c r="N22">
-        <v>11.0474816321751</v>
+        <v>17.88136139136106</v>
       </c>
       <c r="O22">
-        <v>18.12879730947706</v>
+        <v>22.4347092791321</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.90526656995294</v>
+        <v>17.30280322164755</v>
       </c>
       <c r="C23">
-        <v>14.37789551161915</v>
+        <v>12.73048971696543</v>
       </c>
       <c r="D23">
-        <v>4.558517116384014</v>
+        <v>5.015502281760782</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.09981481740863</v>
+        <v>25.58759803528692</v>
       </c>
       <c r="G23">
-        <v>2.04383200125548</v>
+        <v>3.62148291380998</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.177506963448223</v>
+        <v>10.79684724603018</v>
       </c>
       <c r="M23">
-        <v>14.94693410511509</v>
+        <v>15.74235173786046</v>
       </c>
       <c r="N23">
-        <v>11.13016384966005</v>
+        <v>17.90419188589667</v>
       </c>
       <c r="O23">
-        <v>17.93417391785154</v>
+        <v>22.4289519406487</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.94347742790066</v>
+        <v>16.54994339300698</v>
       </c>
       <c r="C24">
-        <v>13.74118573756918</v>
+        <v>12.49643345971665</v>
       </c>
       <c r="D24">
-        <v>4.403628274798844</v>
+        <v>4.964407612793046</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.77854187601217</v>
+        <v>25.43322507137605</v>
       </c>
       <c r="G24">
-        <v>2.053110410391155</v>
+        <v>3.624688437263416</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.01648642193611</v>
+        <v>10.80648690899455</v>
       </c>
       <c r="M24">
-        <v>13.84003248002045</v>
+        <v>15.57112391238292</v>
       </c>
       <c r="N24">
-        <v>11.44826151798986</v>
+        <v>17.99386524740355</v>
       </c>
       <c r="O24">
-        <v>17.21920636290696</v>
+        <v>22.41763721195172</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.65261819214537</v>
+        <v>15.70509241807629</v>
       </c>
       <c r="C25">
-        <v>13.02094661458103</v>
+        <v>12.23633336809291</v>
       </c>
       <c r="D25">
-        <v>4.229388132321208</v>
+        <v>4.907776918959446</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.36694189079099</v>
+        <v>25.29452162404124</v>
       </c>
       <c r="G25">
-        <v>2.063441903763952</v>
+        <v>3.628407607369999</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.855544401100761</v>
+        <v>10.82297552751647</v>
       </c>
       <c r="M25">
-        <v>12.80588545885549</v>
+        <v>15.39348601542303</v>
       </c>
       <c r="N25">
-        <v>11.80227983431241</v>
+        <v>18.09747940707215</v>
       </c>
       <c r="O25">
-        <v>16.49619136264659</v>
+        <v>22.4278454343175</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_154/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_154/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.0597367646986</v>
+        <v>19.81209546332975</v>
       </c>
       <c r="C2">
-        <v>12.03898504284022</v>
+        <v>12.46404417782261</v>
       </c>
       <c r="D2">
-        <v>4.864864825314219</v>
+        <v>4.095482412239309</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.21674136324056</v>
+        <v>20.34512825231299</v>
       </c>
       <c r="G2">
-        <v>3.631373362726689</v>
+        <v>2.071360372039059</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.8403660579065</v>
+        <v>6.74793070919598</v>
       </c>
       <c r="M2">
-        <v>15.26941240228047</v>
+        <v>12.04749331662148</v>
       </c>
       <c r="N2">
-        <v>18.17974642313193</v>
+        <v>12.07273142340388</v>
       </c>
       <c r="O2">
-        <v>22.4545918845222</v>
+        <v>16.00602045710562</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.61073592849474</v>
+        <v>18.46715218754811</v>
       </c>
       <c r="C3">
-        <v>11.90198604048744</v>
+        <v>12.07143451485107</v>
       </c>
       <c r="D3">
-        <v>4.835071270709284</v>
+        <v>4.001555384605057</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.17937328717281</v>
+        <v>19.66718159702417</v>
       </c>
       <c r="G3">
-        <v>3.633526337783374</v>
+        <v>2.076936414246209</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.85543088089858</v>
+        <v>6.681730249377009</v>
       </c>
       <c r="M3">
-        <v>15.18983167809014</v>
+        <v>11.51549791746201</v>
       </c>
       <c r="N3">
-        <v>18.23925466731086</v>
+        <v>12.26234778753516</v>
       </c>
       <c r="O3">
-        <v>22.48466969989769</v>
+        <v>15.70038539723787</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.33040571121336</v>
+        <v>17.59266854645159</v>
       </c>
       <c r="C4">
-        <v>11.81639834605854</v>
+        <v>11.82344052856425</v>
       </c>
       <c r="D4">
-        <v>4.816442859591607</v>
+        <v>3.942438459118564</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.16403354563555</v>
+        <v>19.25944610146616</v>
       </c>
       <c r="G4">
-        <v>3.634919241950064</v>
+        <v>2.080468238282544</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.86629914729202</v>
+        <v>6.644372465870823</v>
       </c>
       <c r="M4">
-        <v>15.14329069667549</v>
+        <v>11.18102283545063</v>
       </c>
       <c r="N4">
-        <v>18.27765409218454</v>
+        <v>12.38196978344826</v>
       </c>
       <c r="O4">
-        <v>22.50901248577385</v>
+        <v>15.52583539714418</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.21518125954959</v>
+        <v>17.22399067926387</v>
       </c>
       <c r="C5">
-        <v>11.78117228687878</v>
+        <v>11.72073439852406</v>
       </c>
       <c r="D5">
-        <v>4.80876989485342</v>
+        <v>3.918004388282516</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.15969871212946</v>
+        <v>19.09564958235907</v>
       </c>
       <c r="G5">
-        <v>3.635504764226553</v>
+        <v>2.08193532475246</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.87113515742496</v>
+        <v>6.629970603672504</v>
       </c>
       <c r="M5">
-        <v>15.12492342910498</v>
+        <v>11.04294105633584</v>
       </c>
       <c r="N5">
-        <v>18.29377138337781</v>
+        <v>12.4315313489454</v>
       </c>
       <c r="O5">
-        <v>22.52040627899009</v>
+        <v>15.45799449272338</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.19599416313503</v>
+        <v>17.16202575264468</v>
       </c>
       <c r="C6">
-        <v>11.77530261117033</v>
+        <v>11.70358367345515</v>
       </c>
       <c r="D6">
-        <v>4.807490941824442</v>
+        <v>3.913926995237344</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.15909473207471</v>
+        <v>19.06860012513554</v>
       </c>
       <c r="G6">
-        <v>3.635603072694467</v>
+        <v>2.082180633359575</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.87196276426623</v>
+        <v>6.627628626906684</v>
       </c>
       <c r="M6">
-        <v>15.12191012386907</v>
+        <v>11.01991114286882</v>
       </c>
       <c r="N6">
-        <v>18.29647602270961</v>
+        <v>12.43981052845517</v>
       </c>
       <c r="O6">
-        <v>22.5223871192584</v>
+        <v>15.44692779686304</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.32885550655602</v>
+        <v>17.58774640706037</v>
       </c>
       <c r="C7">
-        <v>11.81592465743346</v>
+        <v>11.82206193060538</v>
       </c>
       <c r="D7">
-        <v>4.816339706935453</v>
+        <v>3.942110295947566</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.16396732192849</v>
+        <v>19.25722724578275</v>
       </c>
       <c r="G7">
-        <v>3.634927065946082</v>
+        <v>2.080487910357477</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.8663627189239</v>
+        <v>6.644174918450386</v>
       </c>
       <c r="M7">
-        <v>15.14304054691245</v>
+        <v>11.17916755811012</v>
       </c>
       <c r="N7">
-        <v>18.27786955416461</v>
+        <v>12.38263487526481</v>
       </c>
       <c r="O7">
-        <v>22.50916018360189</v>
+        <v>15.52490716983369</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.90598868316775</v>
+        <v>19.35841642912085</v>
       </c>
       <c r="C8">
-        <v>11.99206544227083</v>
+        <v>12.33016528482202</v>
       </c>
       <c r="D8">
-        <v>4.854663050205708</v>
+        <v>4.0634079588579</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.20228156800196</v>
+        <v>20.10972971334452</v>
       </c>
       <c r="G8">
-        <v>3.632101013222338</v>
+        <v>2.073260956278492</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.84522461060928</v>
+        <v>6.72441920331094</v>
       </c>
       <c r="M8">
-        <v>15.24150010772495</v>
+        <v>11.86579074186232</v>
       </c>
       <c r="N8">
-        <v>18.19987932407169</v>
+        <v>12.13745411891372</v>
       </c>
       <c r="O8">
-        <v>22.46374153535412</v>
+        <v>15.89791540782049</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.99365395850863</v>
+        <v>22.44795721519814</v>
       </c>
       <c r="C9">
-        <v>12.32490546231159</v>
+        <v>13.26785482040272</v>
       </c>
       <c r="D9">
-        <v>4.927047916343796</v>
+        <v>4.28899294513005</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.33748736980197</v>
+        <v>21.84015294268714</v>
       </c>
       <c r="G9">
-        <v>3.627119646369504</v>
+        <v>2.059915483569636</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.81660645488696</v>
+        <v>6.908060851025121</v>
       </c>
       <c r="M9">
-        <v>15.45232252170519</v>
+        <v>13.14318803965967</v>
       </c>
       <c r="N9">
-        <v>18.06165200393496</v>
+        <v>11.68153623210781</v>
       </c>
       <c r="O9">
-        <v>22.42141522945023</v>
+        <v>16.73323343340527</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.75707238076473</v>
+        <v>24.48953909565405</v>
       </c>
       <c r="C10">
-        <v>12.56059548100226</v>
+        <v>13.91672164710901</v>
       </c>
       <c r="D10">
-        <v>4.97839943285877</v>
+        <v>4.446256186074414</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.47296018209811</v>
+        <v>23.13632788444347</v>
       </c>
       <c r="G10">
-        <v>3.623797916356144</v>
+        <v>2.050568251131393</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.80339183400204</v>
+        <v>7.059185776646373</v>
       </c>
       <c r="M10">
-        <v>15.61707495501342</v>
+        <v>14.14781546503111</v>
       </c>
       <c r="N10">
-        <v>17.96898622477031</v>
+        <v>11.36108285862181</v>
       </c>
       <c r="O10">
-        <v>22.4189436407998</v>
+        <v>17.40950974012262</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.09501943952048</v>
+        <v>25.36985839198901</v>
       </c>
       <c r="C11">
-        <v>12.66565496659931</v>
+        <v>14.2024990646651</v>
       </c>
       <c r="D11">
-        <v>5.001333340544482</v>
+        <v>4.515777827318279</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.54229267994371</v>
+        <v>23.72947078321363</v>
       </c>
       <c r="G11">
-        <v>3.622359415628085</v>
+        <v>2.046404405638167</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.79907232159986</v>
+        <v>7.131476225522865</v>
       </c>
       <c r="M11">
-        <v>15.69395029336248</v>
+        <v>14.6445245522946</v>
       </c>
       <c r="N11">
-        <v>17.92874396925298</v>
+        <v>11.21831840291722</v>
       </c>
       <c r="O11">
-        <v>22.42404877747623</v>
+        <v>17.73049870274545</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.22153230248352</v>
+        <v>25.69634582713755</v>
       </c>
       <c r="C12">
-        <v>12.70510855640318</v>
+        <v>14.30931676050792</v>
       </c>
       <c r="D12">
-        <v>5.009953992999166</v>
+        <v>4.541800266279898</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.56963982996009</v>
+        <v>23.95445451749649</v>
       </c>
       <c r="G12">
-        <v>3.62182506995144</v>
+        <v>2.044839392743401</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.79767945477678</v>
+        <v>7.159360859033713</v>
       </c>
       <c r="M12">
-        <v>15.72331932417122</v>
+        <v>14.82890349186692</v>
       </c>
       <c r="N12">
-        <v>17.9137789937466</v>
+        <v>11.16468086114755</v>
       </c>
       <c r="O12">
-        <v>22.42687758132238</v>
+        <v>17.85394434433282</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.1943521921644</v>
+        <v>25.62633500176851</v>
       </c>
       <c r="C13">
-        <v>12.69662651466892</v>
+        <v>14.2863746138007</v>
       </c>
       <c r="D13">
-        <v>5.008100265851166</v>
+        <v>4.536209587841102</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.56370181317915</v>
+        <v>23.9059854388207</v>
       </c>
       <c r="G13">
-        <v>3.621939689879879</v>
+        <v>2.045175939690262</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.79796864124729</v>
+        <v>7.15333272565508</v>
       </c>
       <c r="M13">
-        <v>15.71698301476354</v>
+        <v>14.7893585646547</v>
       </c>
       <c r="N13">
-        <v>17.91698980371214</v>
+        <v>11.17621392631457</v>
       </c>
       <c r="O13">
-        <v>22.42622852700501</v>
+        <v>17.82727425042597</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.10545762881541</v>
+        <v>25.39685587234206</v>
       </c>
       <c r="C14">
-        <v>12.6689075660517</v>
+        <v>14.21131532937716</v>
       </c>
       <c r="D14">
-        <v>5.002043862890374</v>
+        <v>4.517924873153861</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.54452074817143</v>
+        <v>23.74797350233866</v>
       </c>
       <c r="G14">
-        <v>3.622315246888367</v>
+        <v>2.046275421354778</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.79895286561307</v>
+        <v>7.133760092099505</v>
       </c>
       <c r="M14">
-        <v>15.69636144241634</v>
+        <v>14.65976766428485</v>
       </c>
       <c r="N14">
-        <v>17.92750730831965</v>
+        <v>11.21389715429436</v>
       </c>
       <c r="O14">
-        <v>22.42426355955624</v>
+        <v>17.74061682522927</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.05081366897467</v>
+        <v>25.25540129482946</v>
       </c>
       <c r="C15">
-        <v>12.65188533202696</v>
+        <v>14.16515571952935</v>
       </c>
       <c r="D15">
-        <v>4.998325739001384</v>
+        <v>4.506684998052719</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.53291356565837</v>
+        <v>23.65123182333297</v>
       </c>
       <c r="G15">
-        <v>3.622546637071248</v>
+        <v>2.046950385957038</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.79958734153731</v>
+        <v>7.121837689588712</v>
       </c>
       <c r="M15">
-        <v>15.68376315393137</v>
+        <v>14.57990731282584</v>
       </c>
       <c r="N15">
-        <v>17.93398522229603</v>
+        <v>11.23703422568059</v>
       </c>
       <c r="O15">
-        <v>22.4231765749304</v>
+        <v>17.68778260820057</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.73478853098626</v>
+        <v>24.43104175002086</v>
       </c>
       <c r="C16">
-        <v>12.55368446829343</v>
+        <v>13.89785198097786</v>
       </c>
       <c r="D16">
-        <v>4.976891846379939</v>
+        <v>4.441670971289109</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.46858290184802</v>
+        <v>23.0976233782377</v>
       </c>
       <c r="G16">
-        <v>3.623893381594883</v>
+        <v>2.050842064787642</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.80370813239331</v>
+        <v>7.054532751058587</v>
       </c>
       <c r="M16">
-        <v>15.61208813708451</v>
+        <v>14.11483193015454</v>
       </c>
       <c r="N16">
-        <v>17.97165453391948</v>
+        <v>11.37047267840563</v>
       </c>
       <c r="O16">
-        <v>22.41873536221875</v>
+        <v>17.38879873523351</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.5384384660477</v>
+        <v>23.91298909869523</v>
       </c>
       <c r="C17">
-        <v>12.49287452144023</v>
+        <v>13.73142585220507</v>
       </c>
       <c r="D17">
-        <v>4.963631811492968</v>
+        <v>4.401259894956046</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.43108114593931</v>
+        <v>22.75879928476187</v>
       </c>
       <c r="G17">
-        <v>3.624738115562117</v>
+        <v>2.05325143561501</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.80666913831189</v>
+        <v>7.014151083432579</v>
       </c>
       <c r="M17">
-        <v>15.56859818620373</v>
+        <v>13.82285542798038</v>
       </c>
       <c r="N17">
-        <v>17.99525237243283</v>
+        <v>11.45309762468533</v>
       </c>
       <c r="O17">
-        <v>22.4176064470067</v>
+        <v>17.20878189565912</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.42463062392125</v>
+        <v>23.61045706368743</v>
       </c>
       <c r="C18">
-        <v>12.45769636745046</v>
+        <v>13.63481998090489</v>
       </c>
       <c r="D18">
-        <v>4.955965034617221</v>
+        <v>4.377827281519875</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.41023743482177</v>
+        <v>22.56425290465956</v>
       </c>
       <c r="G18">
-        <v>3.625230818014741</v>
+        <v>2.054645609588813</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.80853151056465</v>
+        <v>6.991258098891183</v>
       </c>
       <c r="M18">
-        <v>15.54376663349355</v>
+        <v>13.65245255530738</v>
       </c>
       <c r="N18">
-        <v>18.00900523982374</v>
+        <v>11.50090523318989</v>
       </c>
       <c r="O18">
-        <v>22.41754353225843</v>
+        <v>17.10649879059493</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.38595118683768</v>
+        <v>23.50723871113163</v>
       </c>
       <c r="C19">
-        <v>12.44575159492637</v>
+        <v>13.60196104707216</v>
       </c>
       <c r="D19">
-        <v>4.953362414225817</v>
+        <v>4.3698613398494</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.40330529962961</v>
+        <v>22.4984450121785</v>
       </c>
       <c r="G19">
-        <v>3.62539881391408</v>
+        <v>2.055119117860988</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.8091894468553</v>
+        <v>6.983564190791262</v>
       </c>
       <c r="M19">
-        <v>15.53539106029865</v>
+        <v>13.60044002096797</v>
       </c>
       <c r="N19">
-        <v>18.01369267391299</v>
+        <v>11.51714111369687</v>
       </c>
       <c r="O19">
-        <v>22.41762293975779</v>
+        <v>17.07208432102705</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.55943145624911</v>
+        <v>23.96860817761776</v>
       </c>
       <c r="C20">
-        <v>12.49936888476619</v>
+        <v>13.74923385942744</v>
       </c>
       <c r="D20">
-        <v>4.965047519300908</v>
+        <v>4.405581411158741</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.43499820857286</v>
+        <v>22.79483391571193</v>
       </c>
       <c r="G20">
-        <v>3.624647485295074</v>
+        <v>2.052994094609451</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.80633745233888</v>
+        <v>7.018415263891148</v>
       </c>
       <c r="M20">
-        <v>15.57320899392012</v>
+        <v>13.85419167844142</v>
       </c>
       <c r="N20">
-        <v>17.99272171890482</v>
+        <v>11.4442727393342</v>
       </c>
       <c r="O20">
-        <v>22.41766592991576</v>
+        <v>17.22781500596183</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.13160863002368</v>
+        <v>25.46444517782348</v>
       </c>
       <c r="C21">
-        <v>12.6770584094163</v>
+        <v>14.23340040469472</v>
       </c>
       <c r="D21">
-        <v>5.003824530928078</v>
+        <v>4.523303887108828</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.55012517680834</v>
+        <v>23.79437621595135</v>
       </c>
       <c r="G21">
-        <v>3.622204655305663</v>
+        <v>2.045952166053402</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.79865718845918</v>
+        <v>7.139495210629994</v>
       </c>
       <c r="M21">
-        <v>15.70241165177053</v>
+        <v>14.69793204855947</v>
       </c>
       <c r="N21">
-        <v>17.9244106370041</v>
+        <v>11.2028172279044</v>
       </c>
       <c r="O21">
-        <v>22.42481641715408</v>
+        <v>17.76601899526267</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.49700114001765</v>
+        <v>26.40205978868153</v>
       </c>
       <c r="C22">
-        <v>12.79125558866853</v>
+        <v>14.54165411099437</v>
       </c>
       <c r="D22">
-        <v>5.028793768603635</v>
+        <v>4.598465586180443</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.63172634300591</v>
+        <v>24.44976967510178</v>
       </c>
       <c r="G22">
-        <v>3.620668622712638</v>
+        <v>2.041417829581548</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.79505287944907</v>
+        <v>7.221599697037474</v>
       </c>
       <c r="M22">
-        <v>15.78834770522721</v>
+        <v>15.22774191999868</v>
       </c>
       <c r="N22">
-        <v>17.88136139136106</v>
+        <v>11.04748163217507</v>
       </c>
       <c r="O22">
-        <v>22.4347092791321</v>
+        <v>18.12879730947706</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.30280322164755</v>
+        <v>25.905266569953</v>
       </c>
       <c r="C23">
-        <v>12.73048971696543</v>
+        <v>14.37789551161916</v>
       </c>
       <c r="D23">
-        <v>5.015502281760782</v>
+        <v>4.558517116384162</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.58759803528692</v>
+        <v>24.09981481740858</v>
       </c>
       <c r="G23">
-        <v>3.62148291380998</v>
+        <v>2.043832001255481</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.79684724603018</v>
+        <v>7.177506963448223</v>
       </c>
       <c r="M23">
-        <v>15.74235173786046</v>
+        <v>14.94693410511512</v>
       </c>
       <c r="N23">
-        <v>17.90419188589667</v>
+        <v>11.13016384965992</v>
       </c>
       <c r="O23">
-        <v>22.4289519406487</v>
+        <v>17.93417391785147</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.54994339300698</v>
+        <v>23.94347742790068</v>
       </c>
       <c r="C24">
-        <v>12.49643345971665</v>
+        <v>13.74118573756918</v>
       </c>
       <c r="D24">
-        <v>4.964407612793046</v>
+        <v>4.403628274798838</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.43322507137605</v>
+        <v>22.77854187601215</v>
       </c>
       <c r="G24">
-        <v>3.624688437263416</v>
+        <v>2.053110410391154</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.80648690899455</v>
+        <v>7.016486421936159</v>
       </c>
       <c r="M24">
-        <v>15.57112391238292</v>
+        <v>13.84003248002045</v>
       </c>
       <c r="N24">
-        <v>17.99386524740355</v>
+        <v>11.44826151798986</v>
       </c>
       <c r="O24">
-        <v>22.41763721195172</v>
+        <v>17.21920636290695</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.70509241807629</v>
+        <v>21.65261819214546</v>
       </c>
       <c r="C25">
-        <v>12.23633336809291</v>
+        <v>13.02094661458092</v>
       </c>
       <c r="D25">
-        <v>4.907776918959446</v>
+        <v>4.229388132321326</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.29452162404124</v>
+        <v>21.36694189079095</v>
       </c>
       <c r="G25">
-        <v>3.628407607369999</v>
+        <v>2.063441903764219</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.82297552751647</v>
+        <v>6.855544401100799</v>
       </c>
       <c r="M25">
-        <v>15.39348601542303</v>
+        <v>12.80588545885547</v>
       </c>
       <c r="N25">
-        <v>18.09747940707215</v>
+        <v>11.80227983431244</v>
       </c>
       <c r="O25">
-        <v>22.4278454343175</v>
+        <v>16.49619136264654</v>
       </c>
     </row>
   </sheetData>
